--- a/biology/Médecine/Émile_Dind/Émile_Dind.xlsx
+++ b/biology/Médecine/Émile_Dind/Émile_Dind.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Dind</t>
+          <t>Émile_Dind</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Dind, né le 29 mars 1855 à Saint-Cierges et mort le 11 septembre 1932 à Lausanne, est un médecin, un enseignant et une personnalité politique vaudois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Dind</t>
+          <t>Émile_Dind</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Dind fait ses études de médecine à Berne et y obtient son doctorat en 1879. Après des stages en Allemagne, il s'établit à Cossonay et y exerce comme médecin entre 1880 et 1885. 
 En 1885, Émile Dind prend la tête du Service sanitaire cantonal jusqu'en 1892. En 1890, il commence une carrière académique qui le mène au rectorat de l'Université de Lausanne en 1904-1906. Professeur extraordinaire de médecine légale à la Faculté de droit, section de médecine (1888-1890), il est nommé professeur de dermatologie, vénéréologie et maladies vénériennes dès la création de la Faculté de Médecine (1891-1925). Il dirige le service de dermato-vénéréologie de l'Hôpital cantonal et la clinique dermatologique de 1890 à 1925. Retraité en 1925, il crée en 1932 un fonds portant Édouard Dind, en souvenir de son fils décédé, de 50 000 francs en faveur de la recherche scientifique dans le domaine de la dermato-vénéréologie.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Dind</t>
+          <t>Émile_Dind</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De la responsabilité et des erreurs professionnelles en médecine. Genton et Viret. Lausanne. 1887.
 La blennorrhagie et ses complications. F. Rouge. Lausanne. 1902.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Dind</t>
+          <t>Émile_Dind</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Émile Dind », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 « Émile Dind » dans le Dictionnaire historique de la Suisse en ligne.
